--- a/Excel worksheets/Training metrics.xlsx
+++ b/Excel worksheets/Training metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawuliagamah/gitprojects/causal_inference/causal_inference/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawuliagamah/gitprojects/causal_inference/causal_inference/Excel worksheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9539E6-6B40-E74D-A6B0-4E5582B7675D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C27FD067-115D-624C-AFDB-708F6DEF71A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5620" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2E4921A9-D12D-FF43-AF7D-FC9D40598DD0}"/>
+    <workbookView xWindow="3200" yWindow="2960" windowWidth="19200" windowHeight="18000" xr2:uid="{2E4921A9-D12D-FF43-AF7D-FC9D40598DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL models" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t xml:space="preserve"> Values in Roman report perfomance metric for the model trained on the Lalonde sample. Values in bold report performance metric for Dehejia-Wahba sample</t>
   </si>
   <si>
-    <t xml:space="preserve">Colour bars are on the columnwise scale, green indicating best performing metric, red indicating worstperforming </t>
-  </si>
-  <si>
     <t>Log-loss</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>logloss:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colour bars are on a columnwise scale. Green indicates the best relative performnce, red indicates worst relative performance. </t>
   </si>
 </sst>
 </file>
@@ -358,14 +358,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="2" tint="-0.749992370372631"/>
       <name val="Times New Roman"/>
@@ -384,6 +376,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,7 +391,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -767,17 +765,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1002,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,60 +1183,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,16 +1287,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1333,58 +1305,49 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1393,10 +1356,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1404,13 +1370,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,13 +1388,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1440,14 +1403,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1765,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBE6DCA-7122-BF4F-8605-ABA26D2DF7CA}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="25" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="16"/>
@@ -1789,44 +1761,44 @@
     </row>
     <row r="2" spans="1:15" ht="21">
       <c r="A2" s="3"/>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="138" t="s">
+      <c r="I2" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="113"/>
+      <c r="K2" s="110"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" ht="21">
       <c r="A3" s="9"/>
-      <c r="B3" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="99" t="s">
+      <c r="B3" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="96" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="75">
@@ -1853,19 +1825,19 @@
         <f>LOGIT!I4</f>
         <v>0.119424</v>
       </c>
-      <c r="J3" s="139">
-        <f t="shared" ref="J3:J22" si="0">(-(D3+E3)+F3+G3+H3+I3)/6</f>
-        <v>0.20470049999999995</v>
-      </c>
-      <c r="K3" s="114"/>
+      <c r="J3" s="163">
+        <f>(D3+E3+F3+G3+H3-I3)/6</f>
+        <v>0.59445216666666656</v>
+      </c>
+      <c r="K3" s="111"/>
       <c r="M3" s="9"/>
       <c r="N3" s="78"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" ht="21">
       <c r="A4" s="3"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="126"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="121"/>
       <c r="D4" s="73">
         <f>LOGIT!D6</f>
         <v>0.28559299999999999</v>
@@ -1890,19 +1862,19 @@
         <f>LOGIT!I6</f>
         <v>8.6302000000000004E-2</v>
       </c>
-      <c r="J4" s="80">
-        <f t="shared" si="0"/>
-        <v>0.20015316666666672</v>
-      </c>
-      <c r="K4" s="115"/>
+      <c r="J4" s="163">
+        <f t="shared" ref="J4:J22" si="0">(D4+E4+F4+G4+H4-I4)/6</f>
+        <v>0.59189550000000002</v>
+      </c>
+      <c r="K4" s="112"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="21">
       <c r="A5" s="3"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="125" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="120" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="74">
@@ -1929,97 +1901,97 @@
         <f>LOGIT!I5</f>
         <v>0.223576</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="163">
         <f t="shared" si="0"/>
-        <v>0.18277166666666669</v>
-      </c>
-      <c r="K5" s="116"/>
+        <v>0.59594100000000005</v>
+      </c>
+      <c r="K5" s="113"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="21">
       <c r="A6" s="3"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="128">
+      <c r="B6" s="134"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="164">
         <f>LOGIT!D7</f>
         <v>0.39950400000000003</v>
       </c>
-      <c r="E6" s="128">
+      <c r="E6" s="164">
         <f>LOGIT!E7</f>
         <v>0.94598899999999997</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="164">
         <f>LOGIT!F7</f>
         <v>0.92125000000000001</v>
       </c>
-      <c r="G6" s="128">
+      <c r="G6" s="164">
         <f>LOGIT!G7</f>
         <v>0.92125000000000001</v>
       </c>
-      <c r="H6" s="128">
+      <c r="H6" s="164">
         <f>LOGIT!H7</f>
         <v>0.56105099999999997</v>
       </c>
-      <c r="I6" s="128">
+      <c r="I6" s="164">
         <f>LOGIT!I7</f>
         <v>0.22281799999999999</v>
       </c>
-      <c r="J6" s="141">
+      <c r="J6" s="163">
         <f t="shared" si="0"/>
-        <v>0.21347933333333333</v>
-      </c>
-      <c r="K6" s="114"/>
+        <v>0.58770433333333327</v>
+      </c>
+      <c r="K6" s="111"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="21">
       <c r="A7" s="3"/>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="126">
         <f>CART!D$4</f>
         <v>0.44053199999999998</v>
       </c>
-      <c r="E7" s="131">
+      <c r="E7" s="126">
         <f>CART!E$4</f>
         <v>0.87746800000000003</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F7" s="126">
         <f>CART!F$4</f>
         <v>0.92051000000000005</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="126">
         <f>CART!G$4</f>
         <v>0.92051000000000005</v>
       </c>
-      <c r="H7" s="131">
+      <c r="H7" s="126">
         <f>CART!H$4</f>
         <v>0.57540400000000003</v>
       </c>
-      <c r="I7" s="132">
+      <c r="I7" s="127">
         <f>CART!I$4</f>
         <v>0.191663</v>
       </c>
-      <c r="J7" s="143">
+      <c r="J7" s="163">
         <f t="shared" si="0"/>
-        <v>0.2150145</v>
-      </c>
-      <c r="K7" s="115"/>
+        <v>0.59046016666666679</v>
+      </c>
+      <c r="K7" s="112"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="21">
       <c r="A8" s="3"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="73">
         <f>CART!D$6</f>
         <v>0.69589400000000001</v>
@@ -2044,19 +2016,19 @@
         <f>CART!I$6</f>
         <v>5.9832000000000003E-2</v>
       </c>
-      <c r="J8" s="80">
+      <c r="J8" s="163">
         <f t="shared" si="0"/>
-        <v>0.19161083333333337</v>
-      </c>
-      <c r="K8" s="116"/>
+        <v>0.71682216666666665</v>
+      </c>
+      <c r="K8" s="113"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="21">
       <c r="A9" s="3"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="109" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="74">
@@ -2083,57 +2055,57 @@
         <f>CART!I$5</f>
         <v>0.74738300000000002</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="163">
         <f t="shared" si="0"/>
-        <v>0.24695299999999998</v>
-      </c>
-      <c r="K9" s="116"/>
+        <v>0.58575066666666675</v>
+      </c>
+      <c r="K9" s="113"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15" ht="21">
-      <c r="B10" s="140"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="128">
+      <c r="B10" s="134"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="123">
         <f>CART!D$7</f>
         <v>0.59719800000000001</v>
       </c>
-      <c r="E10" s="128">
+      <c r="E10" s="123">
         <f>CART!E$7</f>
         <v>0.89144400000000001</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="123">
         <f>CART!F$7</f>
         <v>0.923516</v>
       </c>
-      <c r="G10" s="128">
+      <c r="G10" s="123">
         <f>CART!G$7</f>
         <v>0.923516</v>
       </c>
-      <c r="H10" s="128">
+      <c r="H10" s="123">
         <f>CART!H$7</f>
         <v>0.71212500000000001</v>
       </c>
-      <c r="I10" s="128">
+      <c r="I10" s="123">
         <f>CART!I$7</f>
         <v>0.45757100000000001</v>
       </c>
-      <c r="J10" s="141">
+      <c r="J10" s="163">
         <f t="shared" si="0"/>
-        <v>0.25468099999999999</v>
-      </c>
-      <c r="K10" s="116"/>
+        <v>0.59837133333333337</v>
+      </c>
+      <c r="K10" s="113"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="21">
       <c r="A11" s="9"/>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="120" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="72">
@@ -2160,19 +2132,19 @@
         <f>FOREST!I$4</f>
         <v>5.0774E-2</v>
       </c>
-      <c r="J11" s="79">
+      <c r="J11" s="163">
         <f t="shared" si="0"/>
-        <v>0.18946983333333334</v>
-      </c>
-      <c r="K11" s="116"/>
+        <v>0.67280416666666676</v>
+      </c>
+      <c r="K11" s="113"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="21">
       <c r="A12" s="8"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="126"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="73">
         <f>FOREST!D$6</f>
         <v>0.85733899999999996</v>
@@ -2197,19 +2169,19 @@
         <f>FOREST!I$6</f>
         <v>2.0632999999999999E-2</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="163">
         <f t="shared" si="0"/>
-        <v>0.17537049999999998</v>
-      </c>
-      <c r="K12" s="116"/>
+        <v>0.76550250000000009</v>
+      </c>
+      <c r="K12" s="113"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="21">
       <c r="A13" s="3"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="125" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="120" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="74">
@@ -2236,97 +2208,97 @@
         <f>FOREST!I$5</f>
         <v>0.16758999999999999</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="163">
         <f t="shared" si="0"/>
-        <v>0.16163350000000001</v>
-      </c>
-      <c r="K13" s="116"/>
+        <v>0.68519216666666682</v>
+      </c>
+      <c r="K13" s="113"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" ht="21">
       <c r="A14" s="9"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="128">
+      <c r="B14" s="134"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="123">
         <f>FOREST!D$7</f>
         <v>0.66758799999999996</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="123">
         <f>FOREST!E$7</f>
         <v>0.891266</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="123">
         <f>FOREST!F$7</f>
         <v>0.929678</v>
       </c>
-      <c r="G14" s="128">
+      <c r="G14" s="123">
         <f>FOREST!G$7</f>
         <v>0.929678</v>
       </c>
-      <c r="H14" s="128">
+      <c r="H14" s="123">
         <f>FOREST!H$7</f>
         <v>0.76231700000000002</v>
       </c>
-      <c r="I14" s="128">
+      <c r="I14" s="123">
         <f>FOREST!I$7</f>
         <v>0.14630799999999999</v>
       </c>
-      <c r="J14" s="141">
+      <c r="J14" s="163">
         <f t="shared" si="0"/>
-        <v>0.20152116666666667</v>
-      </c>
-      <c r="K14" s="117"/>
+        <v>0.67236983333333333</v>
+      </c>
+      <c r="K14" s="114"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="21">
       <c r="A15" s="10"/>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="126">
         <f>XGBOOST!D$4</f>
         <v>0.92826799999999998</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="126">
         <f>XGBOOST!E$4</f>
         <v>0.88103900000000002</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="126">
         <f>XGBOOST!F$4</f>
         <v>0.92826799999999998</v>
       </c>
-      <c r="G15" s="134">
+      <c r="G15" s="129">
         <f>XGBOOST!G$4</f>
         <v>0.92826799999999998</v>
       </c>
-      <c r="H15" s="131">
+      <c r="H15" s="126">
         <f>XGBOOST!H$4</f>
         <v>0.64172899999999999</v>
       </c>
-      <c r="I15" s="132">
+      <c r="I15" s="127">
         <f>XGBOOST!I$4</f>
         <v>8.1206E-2</v>
       </c>
-      <c r="J15" s="143">
+      <c r="J15" s="163">
         <f t="shared" si="0"/>
-        <v>0.12836066666666665</v>
-      </c>
-      <c r="K15" s="116"/>
+        <v>0.70439433333333346</v>
+      </c>
+      <c r="K15" s="113"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" ht="21">
       <c r="A16" s="10"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="101"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="73">
         <f>XGBOOST!D$6</f>
         <v>0.69639300000000004</v>
@@ -2351,19 +2323,19 @@
         <f>XGBOOST!I$6</f>
         <v>3.6117999999999997E-2</v>
       </c>
-      <c r="J16" s="80">
+      <c r="J16" s="163">
         <f t="shared" si="0"/>
-        <v>0.18784583333333335</v>
-      </c>
-      <c r="K16" s="116"/>
+        <v>0.71720650000000008</v>
+      </c>
+      <c r="K16" s="113"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:15" ht="21">
       <c r="A17" s="10"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="125" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="120" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="74">
@@ -2390,19 +2362,19 @@
         <f>XGBOOST!I$5</f>
         <v>0.167405</v>
       </c>
-      <c r="J17" s="79">
+      <c r="J17" s="163">
         <f t="shared" si="0"/>
-        <v>0.19858150000000005</v>
-      </c>
-      <c r="K17" s="116"/>
+        <v>0.65391616666666674</v>
+      </c>
+      <c r="K17" s="113"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
     <row r="18" spans="1:15" ht="21">
       <c r="A18" s="10"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="100"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="77">
         <f>XGBOOST!D$7</f>
         <v>0.62706099999999998</v>
@@ -2427,21 +2399,21 @@
         <f>XGBOOST!I$7</f>
         <v>0.127438</v>
       </c>
-      <c r="J18" s="81">
+      <c r="J18" s="163">
         <f t="shared" si="0"/>
-        <v>0.20108833333333334</v>
-      </c>
-      <c r="K18" s="116"/>
+        <v>0.67481899999999995</v>
+      </c>
+      <c r="K18" s="113"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
     <row r="19" spans="1:15" ht="21">
       <c r="A19" s="10"/>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="120" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="72">
@@ -2468,19 +2440,19 @@
         <f>ANN!I$4</f>
         <v>0.117635</v>
       </c>
-      <c r="J19" s="120">
+      <c r="J19" s="163">
         <f t="shared" si="0"/>
-        <v>0.18627249999999998</v>
-      </c>
-      <c r="K19" s="116"/>
+        <v>0.14706083333333334</v>
+      </c>
+      <c r="K19" s="113"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:15" ht="21">
       <c r="A20" s="3"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="126"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="73">
         <f>ANN!D$6</f>
         <v>0</v>
@@ -2505,19 +2477,19 @@
         <f>ANN!I$6</f>
         <v>7.8575999999999993E-2</v>
       </c>
-      <c r="J20" s="122">
+      <c r="J20" s="163">
         <f t="shared" si="0"/>
-        <v>0.17976266666666665</v>
-      </c>
-      <c r="K20" s="116"/>
+        <v>0.15357066666666666</v>
+      </c>
+      <c r="K20" s="113"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" ht="21">
       <c r="A21" s="9"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="117"/>
+      <c r="C21" s="99" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="74">
@@ -2544,19 +2516,19 @@
         <f>ANN!I$5</f>
         <v>0.30192999999999998</v>
       </c>
-      <c r="J21" s="120">
+      <c r="J21" s="163">
         <f t="shared" si="0"/>
-        <v>0.21698833333333334</v>
-      </c>
-      <c r="K21" s="116"/>
+        <v>0.11634499999999999</v>
+      </c>
+      <c r="K21" s="113"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" ht="21">
       <c r="A22" s="10"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="73">
         <f>ANN!D$7</f>
         <v>0</v>
@@ -2581,29 +2553,29 @@
         <f>ANN!I$7</f>
         <v>0.264629</v>
       </c>
-      <c r="J22" s="122">
+      <c r="J22" s="163">
         <f t="shared" si="0"/>
-        <v>0.2107715</v>
-      </c>
-      <c r="K22" s="116"/>
+        <v>0.12256183333333333</v>
+      </c>
+      <c r="K22" s="113"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" ht="24" customHeight="1">
       <c r="A23" s="9"/>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="127"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="122"/>
       <c r="L23" s="37"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -2611,16 +2583,16 @@
     </row>
     <row r="24" spans="1:15" ht="18">
       <c r="A24" s="12"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="148"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="140"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -2628,18 +2600,18 @@
     </row>
     <row r="25" spans="1:15" ht="29" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="149"/>
+      <c r="B25" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="141"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
@@ -2668,16 +2640,16 @@
     </row>
     <row r="28" spans="1:15" ht="20">
       <c r="A28" s="12"/>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="98"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="95"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
@@ -2685,28 +2657,28 @@
     </row>
     <row r="29" spans="1:15" ht="21">
       <c r="A29" s="12"/>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="136" t="s">
+      <c r="D29" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="136" t="s">
+      <c r="F29" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="136" t="s">
+      <c r="G29" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="136" t="s">
+      <c r="H29" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="166" t="s">
+      <c r="I29" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="158" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="47"/>
@@ -2717,36 +2689,36 @@
     </row>
     <row r="30" spans="1:15" ht="24" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="C30" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="91">
+      <c r="C30" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="88">
         <f>(D3-D4)/((D3+D4)/2)</f>
         <v>0.21264758066282616</v>
       </c>
-      <c r="E30" s="91">
+      <c r="E30" s="88">
         <f t="shared" ref="E30:I30" si="1">(E3-E4)/((E3+E4)/2)</f>
         <v>-4.2704961524091797E-2</v>
       </c>
-      <c r="F30" s="91">
+      <c r="F30" s="88">
         <f t="shared" si="1"/>
         <v>-2.5334982618122781E-2</v>
       </c>
-      <c r="G30" s="91">
+      <c r="G30" s="88">
         <f t="shared" si="1"/>
         <v>-2.5334982618122781E-2</v>
       </c>
-      <c r="H30" s="91">
+      <c r="H30" s="88">
         <f t="shared" si="1"/>
         <v>0.14630235540286129</v>
       </c>
-      <c r="I30" s="91">
+      <c r="I30" s="88">
         <f t="shared" si="1"/>
         <v>0.32200110827022344</v>
       </c>
-      <c r="J30" s="91">
+      <c r="J30" s="88">
         <f>(J3-J4)/((J3+J4)/2)</f>
-        <v>2.2464083730664348E-2</v>
+        <v>4.3101474188424376E-3</v>
       </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
@@ -2755,36 +2727,36 @@
     </row>
     <row r="31" spans="1:15" ht="24" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="91">
+      <c r="D31" s="88">
         <f>(D7-D8)/((D7+D8)/2)</f>
         <v>-0.4494124562444014</v>
       </c>
-      <c r="E31" s="91">
+      <c r="E31" s="88">
         <f t="shared" ref="E31:J31" si="2">(E7-E8)/((E7+E8)/2)</f>
         <v>-6.8357328402236531E-2</v>
       </c>
-      <c r="F31" s="91">
+      <c r="F31" s="88">
         <f t="shared" si="2"/>
         <v>-4.8215238916108551E-2</v>
       </c>
-      <c r="G31" s="91">
+      <c r="G31" s="88">
         <f t="shared" si="2"/>
         <v>-4.8215238916108551E-2</v>
       </c>
-      <c r="H31" s="91">
+      <c r="H31" s="88">
         <f t="shared" si="2"/>
         <v>-0.31842335019817719</v>
       </c>
-      <c r="I31" s="91">
+      <c r="I31" s="88">
         <f t="shared" si="2"/>
         <v>1.0483786954014989</v>
       </c>
-      <c r="J31" s="91">
+      <c r="J31" s="88">
         <f t="shared" si="2"/>
-        <v>0.11511169987769228</v>
+        <v>-0.19332013717006277</v>
       </c>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
@@ -2793,36 +2765,36 @@
     </row>
     <row r="32" spans="1:15" ht="24" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="91">
+      <c r="D32" s="88">
         <f>(D11-D12)/((D11+D12)/2)</f>
         <v>-0.31074665283102781</v>
       </c>
-      <c r="E32" s="91">
+      <c r="E32" s="88">
         <f t="shared" ref="E32:J32" si="3">(E11-E12)/((E11+E12)/2)</f>
         <v>-6.6010368885378062E-2</v>
       </c>
-      <c r="F32" s="91">
+      <c r="F32" s="88">
         <f t="shared" si="3"/>
         <v>-3.7840747190121898E-2</v>
       </c>
-      <c r="G32" s="91">
+      <c r="G32" s="88">
         <f t="shared" si="3"/>
         <v>-3.7840747190121898E-2</v>
       </c>
-      <c r="H32" s="91">
+      <c r="H32" s="88">
         <f t="shared" si="3"/>
         <v>-0.20266902826694735</v>
       </c>
-      <c r="I32" s="91">
+      <c r="I32" s="88">
         <f t="shared" si="3"/>
         <v>0.84420294929068584</v>
       </c>
-      <c r="J32" s="91">
+      <c r="J32" s="88">
         <f t="shared" si="3"/>
-        <v>7.7290431156643066E-2</v>
+        <v>-0.12889926116822559</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -2831,36 +2803,36 @@
     </row>
     <row r="33" spans="1:15" ht="24" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="91">
+      <c r="D33" s="88">
         <f>(D15-D16)/((D15+D16)/2)</f>
         <v>0.28544416342855516</v>
       </c>
-      <c r="E33" s="91">
+      <c r="E33" s="88">
         <f t="shared" ref="E33:J33" si="4">(E15-E16)/((E15+E16)/2)</f>
         <v>-5.1710316964517743E-2</v>
       </c>
-      <c r="F33" s="91">
+      <c r="F33" s="88">
         <f t="shared" si="4"/>
         <v>-3.4037546878003123E-2</v>
       </c>
-      <c r="G33" s="91">
+      <c r="G33" s="88">
         <f t="shared" si="4"/>
         <v>-3.4037546878003123E-2</v>
       </c>
-      <c r="H33" s="91">
+      <c r="H33" s="88">
         <f t="shared" si="4"/>
         <v>-0.21253370323328211</v>
       </c>
-      <c r="I33" s="91">
+      <c r="I33" s="88">
         <f t="shared" si="4"/>
         <v>0.76860659370631756</v>
       </c>
-      <c r="J33" s="91">
+      <c r="J33" s="88">
         <f t="shared" si="4"/>
-        <v>-0.37624252927543678</v>
+        <v>-1.8024984744311075E-2</v>
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -2870,33 +2842,33 @@
     <row r="34" spans="1:15" ht="24" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="47"/>
-      <c r="C34" s="90" t="s">
+      <c r="C34" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="168">
-        <v>0</v>
-      </c>
-      <c r="E34" s="168">
-        <v>0</v>
-      </c>
-      <c r="F34" s="168">
+      <c r="D34" s="160">
+        <v>0</v>
+      </c>
+      <c r="E34" s="160">
+        <v>0</v>
+      </c>
+      <c r="F34" s="160">
         <f t="shared" ref="E34:J34" si="5">(F19-F20)/((F19+F20)/2)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="168">
+      <c r="G34" s="160">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H34" s="168">
-        <v>0</v>
-      </c>
-      <c r="I34" s="168">
+      <c r="H34" s="160">
+        <v>0</v>
+      </c>
+      <c r="I34" s="160">
         <f t="shared" si="5"/>
         <v>0.39813262253390497</v>
       </c>
-      <c r="J34" s="168">
+      <c r="J34" s="160">
         <f t="shared" si="5"/>
-        <v>3.5569442098231874E-2</v>
+        <v>-4.330772612539488E-2</v>
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -2905,32 +2877,32 @@
     </row>
     <row r="35" spans="1:15" ht="16" customHeight="1">
       <c r="A35" s="37"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:15" ht="21" customHeight="1">
-      <c r="A36" s="84"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="93" t="s">
+      <c r="A36" s="81"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="95"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="92"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -2938,29 +2910,29 @@
     </row>
     <row r="37" spans="1:15" ht="16" customHeight="1">
       <c r="A37" s="37"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="86" t="s">
+      <c r="B37" s="80"/>
+      <c r="C37" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="136" t="s">
+      <c r="D37" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="136" t="s">
+      <c r="F37" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="136" t="s">
+      <c r="G37" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="136" t="s">
+      <c r="H37" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37" s="138" t="s">
+      <c r="I37" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="133" t="s">
         <v>35</v>
       </c>
       <c r="L37" s="11"/>
@@ -2969,38 +2941,38 @@
       <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:15" ht="16" customHeight="1">
-      <c r="A38" s="82"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="92">
+      <c r="A38" s="79"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="89">
         <f t="shared" ref="D38:J38" si="6">(D5-D6)/((D5+D6)/2)</f>
         <v>0.30988990068851724</v>
       </c>
-      <c r="E38" s="91">
+      <c r="E38" s="88">
         <f t="shared" si="6"/>
         <v>-3.1035920876704939E-2</v>
       </c>
-      <c r="F38" s="91">
+      <c r="F38" s="88">
         <f t="shared" si="6"/>
         <v>-9.6506861716399474E-3</v>
       </c>
-      <c r="G38" s="87">
+      <c r="G38" s="84">
         <f t="shared" si="6"/>
         <v>-9.6506861716399474E-3</v>
       </c>
-      <c r="H38" s="91">
+      <c r="H38" s="88">
         <f t="shared" si="6"/>
         <v>-9.2722296563267886E-2</v>
       </c>
-      <c r="I38" s="88">
+      <c r="I38" s="85">
         <f t="shared" si="6"/>
         <v>3.3961029942159112E-3</v>
       </c>
-      <c r="J38" s="91">
+      <c r="J38" s="88">
         <f t="shared" si="6"/>
-        <v>-0.15499098635292596</v>
+        <v>1.3917457256340495E-2</v>
       </c>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
@@ -3008,38 +2980,38 @@
       <c r="O38" s="13"/>
     </row>
     <row r="39" spans="1:15" ht="16" customHeight="1">
-      <c r="A39" s="82"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="89" t="s">
+      <c r="A39" s="79"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="92">
+      <c r="D39" s="89">
         <f t="shared" ref="D39:J39" si="7">(D9-D10)/((D9+D10)/2)</f>
         <v>0.40110413071793927</v>
       </c>
-      <c r="E39" s="91">
+      <c r="E39" s="88">
         <f t="shared" si="7"/>
         <v>-2.7861819207548669E-2</v>
       </c>
-      <c r="F39" s="91">
+      <c r="F39" s="88">
         <f t="shared" si="7"/>
         <v>-2.9321930360415444E-2</v>
       </c>
-      <c r="G39" s="87">
+      <c r="G39" s="84">
         <f t="shared" si="7"/>
         <v>-2.9321930360415444E-2</v>
       </c>
-      <c r="H39" s="91">
+      <c r="H39" s="88">
         <f t="shared" si="7"/>
         <v>-1.0828897767863381E-2</v>
       </c>
-      <c r="I39" s="88">
+      <c r="I39" s="85">
         <f t="shared" si="7"/>
         <v>0.48103413076349799</v>
       </c>
-      <c r="J39" s="91">
+      <c r="J39" s="88">
         <f t="shared" si="7"/>
-        <v>-3.0811308643353578E-2</v>
+        <v>-2.131649723029656E-2</v>
       </c>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
@@ -3047,38 +3019,38 @@
       <c r="O39" s="13"/>
     </row>
     <row r="40" spans="1:15" ht="16" customHeight="1">
-      <c r="A40" s="82"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="89" t="s">
+      <c r="A40" s="79"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="92">
+      <c r="D40" s="89">
         <f>(D13-D14)/((D13+D14)/2)</f>
         <v>0.29272406321586658</v>
       </c>
-      <c r="E40" s="91">
+      <c r="E40" s="88">
         <f t="shared" ref="D40:J41" si="8">(E13-E14)/((E13+E14)/2)</f>
         <v>-5.7140746870057428E-2</v>
       </c>
-      <c r="F40" s="91">
+      <c r="F40" s="88">
         <f t="shared" si="8"/>
         <v>-3.6321501967756929E-2</v>
       </c>
-      <c r="G40" s="87">
+      <c r="G40" s="84">
         <f t="shared" si="8"/>
         <v>-3.6321501967756929E-2</v>
       </c>
-      <c r="H40" s="91">
+      <c r="H40" s="88">
         <f t="shared" si="8"/>
         <v>-1.969309191875844E-2</v>
       </c>
-      <c r="I40" s="88">
+      <c r="I40" s="85">
         <f t="shared" si="8"/>
         <v>0.13559818794640294</v>
       </c>
-      <c r="J40" s="91">
+      <c r="J40" s="88">
         <f t="shared" si="8"/>
-        <v>-0.21967316037978302</v>
+        <v>1.8890236075160455E-2</v>
       </c>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
@@ -3087,38 +3059,38 @@
       <c r="O40" s="13"/>
     </row>
     <row r="41" spans="1:15" ht="16" customHeight="1">
-      <c r="A41" s="82"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="89" t="s">
+      <c r="A41" s="79"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="92">
+      <c r="D41" s="89">
         <f>(D17-D18)/((D17+D18)/2)</f>
         <v>7.7039726579809759E-2</v>
       </c>
-      <c r="E41" s="92">
+      <c r="E41" s="89">
         <f t="shared" ref="E41:J41" si="9">(E17-E18)/((E17+E18)/2)</f>
         <v>-7.3652465892208516E-2</v>
       </c>
-      <c r="F41" s="92">
+      <c r="F41" s="89">
         <f t="shared" si="9"/>
         <v>-4.1591269066371568E-2</v>
       </c>
-      <c r="G41" s="92">
+      <c r="G41" s="89">
         <f t="shared" si="9"/>
         <v>-4.1591269066371568E-2</v>
       </c>
-      <c r="H41" s="92">
+      <c r="H41" s="89">
         <f t="shared" si="9"/>
         <v>8.6069308021186636E-3</v>
       </c>
-      <c r="I41" s="92">
+      <c r="I41" s="89">
         <f t="shared" si="9"/>
         <v>0.27110699592664578</v>
       </c>
-      <c r="J41" s="92">
+      <c r="J41" s="89">
         <f t="shared" si="9"/>
-        <v>-1.2544521123477126E-2</v>
+        <v>-3.1462753237383075E-2</v>
       </c>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
@@ -3127,35 +3099,35 @@
       <c r="O41" s="13"/>
     </row>
     <row r="42" spans="1:15" ht="16" customHeight="1">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="90" t="s">
+      <c r="A42" s="79"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="92">
-        <v>0</v>
-      </c>
-      <c r="E42" s="92">
-        <v>0</v>
-      </c>
-      <c r="F42" s="92">
+      <c r="D42" s="89">
+        <v>0</v>
+      </c>
+      <c r="E42" s="89">
+        <v>0</v>
+      </c>
+      <c r="F42" s="89">
         <f t="shared" ref="E42:J42" si="10">(F21-F22)/((F21+F22)/2)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="92">
+      <c r="G42" s="89">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H42" s="92">
-        <v>0</v>
-      </c>
-      <c r="I42" s="92">
+      <c r="H42" s="89">
+        <v>0</v>
+      </c>
+      <c r="I42" s="89">
         <f t="shared" si="10"/>
         <v>0.13167560660054811</v>
       </c>
-      <c r="J42" s="92">
+      <c r="J42" s="89">
         <f t="shared" si="10"/>
-        <v>2.9066933586954384E-2</v>
+        <v>-5.20439976252947E-2</v>
       </c>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
@@ -3164,8 +3136,8 @@
       <c r="O42" s="13"/>
     </row>
     <row r="43" spans="1:15" ht="16" customHeight="1">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
@@ -3173,18 +3145,18 @@
       <c r="O43" s="13"/>
     </row>
     <row r="44" spans="1:15" ht="16" customHeight="1">
-      <c r="A44" s="82"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="93" t="s">
+      <c r="A44" s="79"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="95"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="92"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
@@ -3192,30 +3164,30 @@
       <c r="O44" s="13"/>
     </row>
     <row r="45" spans="1:15" ht="16" customHeight="1">
-      <c r="A45" s="82"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="86" t="s">
+      <c r="A45" s="79"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="136" t="s">
+      <c r="D45" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="136" t="s">
+      <c r="F45" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="136" t="s">
+      <c r="G45" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="J45" s="166" t="s">
+      <c r="I45" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="158" t="s">
         <v>35</v>
       </c>
       <c r="K45" s="13"/>
@@ -3225,38 +3197,38 @@
       <c r="O45" s="13"/>
     </row>
     <row r="46" spans="1:15" ht="16" customHeight="1">
-      <c r="A46" s="82"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="92">
+      <c r="A46" s="79"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="89">
         <f>(D3-D5)/((D3+D5)/2)</f>
         <v>-0.42789379193045446</v>
       </c>
-      <c r="E46" s="92">
+      <c r="E46" s="89">
         <f t="shared" ref="E46:J46" si="11">(E3-E5)/((E3+E5)/2)</f>
         <v>1.9492411219474343E-2</v>
       </c>
-      <c r="F46" s="92">
+      <c r="F46" s="89">
         <f t="shared" si="11"/>
         <v>3.3048337235322175E-2</v>
       </c>
-      <c r="G46" s="92">
+      <c r="G46" s="89">
         <f t="shared" si="11"/>
         <v>3.3048337235322175E-2</v>
       </c>
-      <c r="H46" s="92">
+      <c r="H46" s="89">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I46" s="92">
+      <c r="I46" s="89">
         <f t="shared" si="11"/>
         <v>-0.6073002915451895</v>
       </c>
-      <c r="J46" s="91">
+      <c r="J46" s="88">
         <f t="shared" si="11"/>
-        <v>0.11318920541819526</v>
+        <v>-2.5014144486439197E-3</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
@@ -3265,38 +3237,38 @@
       <c r="O46" s="13"/>
     </row>
     <row r="47" spans="1:15" ht="16" customHeight="1">
-      <c r="A47" s="82"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="89" t="s">
+      <c r="A47" s="79"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="92">
+      <c r="D47" s="89">
         <f>(D7-D9)/((D7+D9)/2)</f>
         <v>-0.68238320272776221</v>
       </c>
-      <c r="E47" s="92">
+      <c r="E47" s="89">
         <f t="shared" ref="E47:J47" si="12">(E7-E9)/((E7+E9)/2)</f>
         <v>1.2061343165850317E-2</v>
       </c>
-      <c r="F47" s="92">
+      <c r="F47" s="89">
         <f t="shared" si="12"/>
         <v>2.6062295511346919E-2</v>
       </c>
-      <c r="G47" s="92">
+      <c r="G47" s="89">
         <f t="shared" si="12"/>
         <v>2.6062295511346919E-2</v>
       </c>
-      <c r="H47" s="92">
+      <c r="H47" s="89">
         <f t="shared" si="12"/>
         <v>-0.20166440209429323</v>
       </c>
-      <c r="I47" s="92">
+      <c r="I47" s="89">
         <f t="shared" si="12"/>
         <v>-1.1835841907638176</v>
       </c>
-      <c r="J47" s="91">
+      <c r="J47" s="88">
         <f t="shared" si="12"/>
-        <v>-0.13827163166240042</v>
+        <v>8.0079180815798168E-3</v>
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
@@ -3305,38 +3277,38 @@
       <c r="O47" s="13"/>
     </row>
     <row r="48" spans="1:15" ht="16" customHeight="1">
-      <c r="A48" s="82"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="89" t="s">
+      <c r="A48" s="79"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="92">
+      <c r="D48" s="89">
         <f>(D11-D13)/((D11+D13)/2)</f>
         <v>-0.35418942481408355</v>
       </c>
-      <c r="E48" s="92">
+      <c r="E48" s="89">
         <f t="shared" ref="E48:J48" si="13">(E11-E13)/((E11+E13)/2)</f>
         <v>3.761906399367284E-2</v>
       </c>
-      <c r="F48" s="92">
+      <c r="F48" s="89">
         <f t="shared" si="13"/>
         <v>3.6261284078121223E-2</v>
       </c>
-      <c r="G48" s="92">
+      <c r="G48" s="89">
         <f t="shared" si="13"/>
         <v>3.6261284078121223E-2</v>
       </c>
-      <c r="H48" s="92">
+      <c r="H48" s="89">
         <f t="shared" si="13"/>
         <v>-2.6945910893955347E-2</v>
       </c>
-      <c r="I48" s="92">
+      <c r="I48" s="89">
         <f t="shared" si="13"/>
         <v>-1.0699199501749372</v>
       </c>
-      <c r="J48" s="91">
+      <c r="J48" s="88">
         <f t="shared" si="13"/>
-        <v>0.15856490491877981</v>
+        <v>-1.8244526433429345E-2</v>
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
@@ -3346,69 +3318,69 @@
     </row>
     <row r="49" spans="1:10" ht="16" customHeight="1">
       <c r="A49" s="47"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="89" t="s">
+      <c r="B49" s="80"/>
+      <c r="C49" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="92">
+      <c r="D49" s="89">
         <f>(D15-D18)/((D15+D18)/2)</f>
         <v>0.38732255362048801</v>
       </c>
-      <c r="E49" s="92">
+      <c r="E49" s="89">
         <f t="shared" ref="E49:J49" si="14">(E15-E18)/((E15+E18)/2)</f>
         <v>-4.4968179437792306E-2</v>
       </c>
-      <c r="F49" s="92">
+      <c r="F49" s="89">
         <f t="shared" si="14"/>
         <v>-1.3568248095325534E-2</v>
       </c>
-      <c r="G49" s="92">
+      <c r="G49" s="89">
         <f t="shared" si="14"/>
         <v>-1.3568248095325534E-2</v>
       </c>
-      <c r="H49" s="92">
+      <c r="H49" s="89">
         <f t="shared" si="14"/>
         <v>-0.1500411155465774</v>
       </c>
-      <c r="I49" s="92">
+      <c r="I49" s="89">
         <f t="shared" si="14"/>
         <v>-0.44316635033837537</v>
       </c>
-      <c r="J49" s="91">
+      <c r="J49" s="88">
         <f t="shared" si="14"/>
-        <v>-0.44151092683035426</v>
+        <v>4.2887249736565054E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="20">
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
-      <c r="C50" s="90" t="s">
+      <c r="C50" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="167">
-        <v>0</v>
-      </c>
-      <c r="E50" s="167">
-        <v>0</v>
-      </c>
-      <c r="F50" s="167">
+      <c r="D50" s="159">
+        <v>0</v>
+      </c>
+      <c r="E50" s="159">
+        <v>0</v>
+      </c>
+      <c r="F50" s="159">
         <f t="shared" ref="E50:J50" si="15">(F19-F22)/((F19+F22)/2)</f>
         <v>0</v>
       </c>
-      <c r="G50" s="167">
+      <c r="G50" s="159">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H50" s="167">
-        <v>0</v>
-      </c>
-      <c r="I50" s="167">
+      <c r="H50" s="159">
+        <v>0</v>
+      </c>
+      <c r="I50" s="159">
         <f t="shared" si="15"/>
         <v>-0.76907058995877209</v>
       </c>
-      <c r="J50" s="168">
+      <c r="J50" s="160">
         <f t="shared" si="15"/>
-        <v>-0.12340697756419955</v>
+        <v>0.18172804462532827</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3416,212 +3388,212 @@
     </row>
     <row r="52" spans="1:10" ht="20">
       <c r="A52" s="3"/>
-      <c r="C52" s="93" t="s">
+      <c r="C52" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="95"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="92"/>
     </row>
     <row r="53" spans="1:10" ht="21">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="136" t="s">
+      <c r="D53" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="F53" s="136" t="s">
+      <c r="F53" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="136" t="s">
+      <c r="G53" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="136" t="s">
+      <c r="H53" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="J53" s="166" t="s">
+      <c r="I53" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" s="158" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="92">
+      <c r="C54" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="89">
         <f>(D4-D6)/((D4+D6)/2)</f>
         <v>-0.33253977174035221</v>
       </c>
-      <c r="E54" s="92">
+      <c r="E54" s="89">
         <f t="shared" ref="E54:J54" si="16">(E4-E6)/((E4+E6)/2)</f>
         <v>3.1163546964631875E-2</v>
       </c>
-      <c r="F54" s="92">
+      <c r="F54" s="89">
         <f t="shared" si="16"/>
         <v>4.8727277733621913E-2</v>
       </c>
-      <c r="G54" s="92">
+      <c r="G54" s="89">
         <f t="shared" si="16"/>
         <v>4.8727277733621913E-2</v>
       </c>
-      <c r="H54" s="92">
+      <c r="H54" s="89">
         <f t="shared" si="16"/>
         <v>-0.23821677013987574</v>
       </c>
-      <c r="I54" s="92">
+      <c r="I54" s="89">
         <f t="shared" si="16"/>
         <v>-0.88325569358178035</v>
       </c>
-      <c r="J54" s="91">
+      <c r="J54" s="88">
         <f t="shared" si="16"/>
-        <v>-6.4434814317862396E-2</v>
+        <v>7.1060821614789072E-3</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="20">
       <c r="A55" s="4"/>
-      <c r="C55" s="89" t="s">
+      <c r="C55" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="92">
+      <c r="D55" s="89">
         <f>(D8-D10)/((D8+D10)/2)</f>
         <v>0.15265116480497906</v>
       </c>
-      <c r="E55" s="92">
+      <c r="E55" s="89">
         <f t="shared" ref="E55:J55" si="17">(E8-E10)/((E8+E10)/2)</f>
         <v>5.2569720854432678E-2</v>
       </c>
-      <c r="F55" s="92">
+      <c r="F55" s="89">
         <f t="shared" si="17"/>
         <v>4.4956747931336499E-2</v>
       </c>
-      <c r="G55" s="92">
+      <c r="G55" s="89">
         <f t="shared" si="17"/>
         <v>4.4956747931336499E-2</v>
       </c>
-      <c r="H55" s="92">
+      <c r="H55" s="89">
         <f t="shared" si="17"/>
         <v>0.10786969442942496</v>
       </c>
-      <c r="I55" s="92">
+      <c r="I55" s="89">
         <f t="shared" si="17"/>
         <v>-1.5374437334147655</v>
       </c>
-      <c r="J55" s="91">
+      <c r="J55" s="88">
         <f t="shared" si="17"/>
-        <v>-0.28264091769548383</v>
+        <v>0.180126853323611</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="20">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="89" t="s">
+      <c r="C56" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="92">
+      <c r="D56" s="89">
         <f>(D12-D14)/((D12+D14)/2)</f>
         <v>0.24886568340648441</v>
       </c>
-      <c r="E56" s="92">
+      <c r="E56" s="89">
         <f t="shared" ref="E56:J56" si="18">(E12-E14)/((E12+E14)/2)</f>
         <v>4.6493175725880534E-2</v>
       </c>
-      <c r="F56" s="92">
+      <c r="F56" s="89">
         <f t="shared" si="18"/>
         <v>3.7780530995865189E-2</v>
       </c>
-      <c r="G56" s="92">
+      <c r="G56" s="89">
         <f t="shared" si="18"/>
         <v>3.7780530995865189E-2</v>
       </c>
-      <c r="H56" s="92">
+      <c r="H56" s="89">
         <f t="shared" si="18"/>
         <v>0.15640576065006828</v>
       </c>
-      <c r="I56" s="92">
+      <c r="I56" s="89">
         <f t="shared" si="18"/>
         <v>-1.5056217466050879</v>
       </c>
-      <c r="J56" s="91">
+      <c r="J56" s="88">
         <f t="shared" si="18"/>
-        <v>-0.13877020363941903</v>
+        <v>0.12954233071689036</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="29" customHeight="1">
       <c r="A57" s="4"/>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="92">
+      <c r="D57" s="89">
         <f>(D16-D18)/((D16+D18)/2)</f>
         <v>0.10477432536378305</v>
       </c>
-      <c r="E57" s="92">
+      <c r="E57" s="89">
         <f t="shared" ref="E57:J57" si="19">(E16-E18)/((E16+E18)/2)</f>
         <v>6.7460592113232545E-3</v>
       </c>
-      <c r="F57" s="92">
+      <c r="F57" s="89">
         <f t="shared" si="19"/>
         <v>2.0471662389026781E-2</v>
       </c>
-      <c r="G57" s="92">
+      <c r="G57" s="89">
         <f t="shared" si="19"/>
         <v>2.0471662389026781E-2</v>
       </c>
-      <c r="H57" s="92">
+      <c r="H57" s="89">
         <f t="shared" si="19"/>
         <v>6.2994794693275138E-2</v>
       </c>
-      <c r="I57" s="92">
+      <c r="I57" s="89">
         <f t="shared" si="19"/>
         <v>-1.1166817481474236</v>
       </c>
-      <c r="J57" s="91">
+      <c r="J57" s="88">
         <f t="shared" si="19"/>
-        <v>-6.8096357352679604E-2</v>
+        <v>6.0900464826255177E-2</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="26" customHeight="1">
       <c r="A58" s="4"/>
-      <c r="C58" s="90" t="s">
+      <c r="C58" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="167">
-        <v>0</v>
-      </c>
-      <c r="E58" s="167">
-        <v>0</v>
-      </c>
-      <c r="F58" s="167">
+      <c r="D58" s="159">
+        <v>0</v>
+      </c>
+      <c r="E58" s="159">
+        <v>0</v>
+      </c>
+      <c r="F58" s="159">
         <f t="shared" ref="E58:J58" si="20">(F20-F22)/((F20+F22)/2)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="167">
+      <c r="G58" s="159">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H58" s="167">
-        <v>0</v>
-      </c>
-      <c r="I58" s="167">
+      <c r="H58" s="159">
+        <v>0</v>
+      </c>
+      <c r="I58" s="159">
         <f t="shared" si="20"/>
         <v>-1.0842091461371486</v>
       </c>
-      <c r="J58" s="168">
+      <c r="J58" s="160">
         <f t="shared" si="20"/>
-        <v>-0.15880215346075149</v>
+        <v>0.22459386948898324</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="29" customHeight="1"/>
@@ -4301,23 +4273,23 @@
   <sheetData>
     <row r="2" spans="1:19" ht="21">
       <c r="A2" s="8"/>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="150"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="142"/>
       <c r="R2" s="47"/>
       <c r="S2" s="47"/>
     </row>
@@ -4330,10 +4302,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>34</v>
@@ -4345,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
@@ -4516,15 +4488,15 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3"/>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="153"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
       <c r="I9" s="9"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -4535,7 +4507,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3"/>
-      <c r="B10" s="154"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="22">
         <v>0</v>
       </c>
@@ -4551,7 +4523,7 @@
       <c r="G10" s="22">
         <v>4</v>
       </c>
-      <c r="H10" s="155" t="s">
+      <c r="H10" s="147" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="9"/>
@@ -4563,7 +4535,7 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="148" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="68">
@@ -4581,7 +4553,7 @@
       <c r="G11" s="68">
         <v>0.93705400000000005</v>
       </c>
-      <c r="H11" s="157">
+      <c r="H11" s="149">
         <v>0.94306199999999996</v>
       </c>
       <c r="I11" s="9"/>
@@ -4594,7 +4566,7 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="148" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="68">
@@ -4612,7 +4584,7 @@
       <c r="G12" s="68">
         <v>0.32692300000000002</v>
       </c>
-      <c r="H12" s="157">
+      <c r="H12" s="149">
         <v>0.353549</v>
       </c>
       <c r="I12" s="9"/>
@@ -4625,7 +4597,7 @@
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="148" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="68">
@@ -4643,7 +4615,7 @@
       <c r="G13" s="68">
         <v>0.92727300000000001</v>
       </c>
-      <c r="H13" s="157">
+      <c r="H13" s="149">
         <v>0.93513000000000002</v>
       </c>
       <c r="J13" s="6"/>
@@ -4655,7 +4627,7 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="148" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="68">
@@ -4673,7 +4645,7 @@
       <c r="G14" s="68">
         <v>5.3695E-2</v>
       </c>
-      <c r="H14" s="157">
+      <c r="H14" s="149">
         <v>4.9443000000000001E-2</v>
       </c>
       <c r="J14" s="6"/>
@@ -4685,7 +4657,7 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="148" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="68">
@@ -4703,7 +4675,7 @@
       <c r="G15" s="68">
         <v>5.3695E-2</v>
       </c>
-      <c r="H15" s="157">
+      <c r="H15" s="149">
         <v>4.9443000000000001E-2</v>
       </c>
       <c r="J15" s="6"/>
@@ -4715,7 +4687,7 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="148" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="68">
@@ -4733,7 +4705,7 @@
       <c r="G16" s="68">
         <v>-1.0370079999999999</v>
       </c>
-      <c r="H16" s="157">
+      <c r="H16" s="149">
         <v>-0.864985</v>
       </c>
       <c r="J16" s="6"/>
@@ -4745,7 +4717,7 @@
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="B17" s="156" t="s">
+      <c r="B17" s="148" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="68">
@@ -4763,7 +4735,7 @@
       <c r="G17" s="68">
         <v>0.93705400000000005</v>
       </c>
-      <c r="H17" s="157">
+      <c r="H17" s="149">
         <v>0.94306199999999996</v>
       </c>
       <c r="J17" s="6"/>
@@ -4775,7 +4747,7 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="148" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="68">
@@ -4793,7 +4765,7 @@
       <c r="G18" s="68">
         <v>0.93705400000000005</v>
       </c>
-      <c r="H18" s="157">
+      <c r="H18" s="149">
         <v>0.94306199999999996</v>
       </c>
       <c r="J18" s="6"/>
@@ -4805,7 +4777,7 @@
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="148" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="68">
@@ -4823,7 +4795,7 @@
       <c r="G19" s="68">
         <v>0.48341200000000001</v>
       </c>
-      <c r="H19" s="157">
+      <c r="H19" s="149">
         <v>0.51133399999999996</v>
       </c>
       <c r="J19" s="6"/>
@@ -4835,25 +4807,25 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="B20" s="158" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="159">
+      <c r="B20" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="151">
         <v>0.111794</v>
       </c>
-      <c r="D20" s="159">
+      <c r="D20" s="151">
         <v>0.108044</v>
       </c>
-      <c r="E20" s="159">
+      <c r="E20" s="151">
         <v>0.15091199999999999</v>
       </c>
-      <c r="F20" s="159">
+      <c r="F20" s="151">
         <v>0.105624</v>
       </c>
-      <c r="G20" s="159">
+      <c r="G20" s="151">
         <v>0.12074600000000001</v>
       </c>
-      <c r="H20" s="160">
+      <c r="H20" s="152">
         <v>0.119424</v>
       </c>
       <c r="J20" s="6"/>
@@ -4866,7 +4838,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="47"/>
-      <c r="B21" s="161"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -5351,7 +5323,7 @@
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="6">
         <v>0.20360800000000001</v>
@@ -5372,7 +5344,7 @@
         <v>0.223576</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34" s="6">
         <v>0.20360800000000001</v>
@@ -5864,7 +5836,7 @@
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="6">
         <v>8.9386999999999994E-2</v>
@@ -5885,7 +5857,7 @@
         <v>8.6302000000000004E-2</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48" s="6">
         <v>8.9386999999999994E-2</v>
@@ -5924,18 +5896,18 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:16">
-      <c r="B51" s="162" t="s">
+      <c r="B51" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
-      <c r="E51" s="163"/>
-      <c r="F51" s="163"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="164"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="155"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="156"/>
     </row>
     <row r="52" spans="2:16">
-      <c r="B52" s="165"/>
+      <c r="B52" s="157"/>
       <c r="C52" s="22">
         <v>0</v>
       </c>
@@ -5951,7 +5923,7 @@
       <c r="G52" s="22">
         <v>4</v>
       </c>
-      <c r="H52" s="155" t="s">
+      <c r="H52" s="147" t="s">
         <v>18</v>
       </c>
       <c r="K52" s="5">
@@ -5974,7 +5946,7 @@
       </c>
     </row>
     <row r="53" spans="2:16">
-      <c r="B53" s="156" t="s">
+      <c r="B53" s="148" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="68">
@@ -5992,7 +5964,7 @@
       <c r="G53" s="68">
         <v>0.89204499999999998</v>
       </c>
-      <c r="H53" s="157">
+      <c r="H53" s="149">
         <v>0.92125000000000001</v>
       </c>
       <c r="J53" s="6" t="s">
@@ -6018,7 +5990,7 @@
       </c>
     </row>
     <row r="54" spans="2:16">
-      <c r="B54" s="156" t="s">
+      <c r="B54" s="148" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="68">
@@ -6036,7 +6008,7 @@
       <c r="G54" s="68">
         <v>0.34090900000000002</v>
       </c>
-      <c r="H54" s="157">
+      <c r="H54" s="149">
         <v>0.39950400000000003</v>
       </c>
       <c r="J54" s="6" t="s">
@@ -6062,7 +6034,7 @@
       </c>
     </row>
     <row r="55" spans="2:16">
-      <c r="B55" s="156" t="s">
+      <c r="B55" s="148" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="68">
@@ -6080,7 +6052,7 @@
       <c r="G55" s="68">
         <v>0.90909099999999998</v>
       </c>
-      <c r="H55" s="157">
+      <c r="H55" s="149">
         <v>0.94598899999999997</v>
       </c>
       <c r="J55" s="6" t="s">
@@ -6106,7 +6078,7 @@
       </c>
     </row>
     <row r="56" spans="2:16">
-      <c r="B56" s="156" t="s">
+      <c r="B56" s="148" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="68">
@@ -6124,7 +6096,7 @@
       <c r="G56" s="68">
         <v>0.122736</v>
       </c>
-      <c r="H56" s="157">
+      <c r="H56" s="149">
         <v>0.100163</v>
       </c>
       <c r="J56" s="6" t="s">
@@ -6150,7 +6122,7 @@
       </c>
     </row>
     <row r="57" spans="2:16">
-      <c r="B57" s="156" t="s">
+      <c r="B57" s="148" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="68">
@@ -6168,7 +6140,7 @@
       <c r="G57" s="68">
         <v>0.122736</v>
       </c>
-      <c r="H57" s="157">
+      <c r="H57" s="149">
         <v>0.100163</v>
       </c>
       <c r="J57" s="6" t="s">
@@ -6194,7 +6166,7 @@
       </c>
     </row>
     <row r="58" spans="2:16">
-      <c r="B58" s="156" t="s">
+      <c r="B58" s="148" t="s">
         <v>24</v>
       </c>
       <c r="C58" s="68">
@@ -6212,7 +6184,7 @@
       <c r="G58" s="68">
         <v>-0.97994999999999999</v>
       </c>
-      <c r="H58" s="157">
+      <c r="H58" s="149">
         <v>-0.59988399999999997</v>
       </c>
       <c r="J58" s="6" t="s">
@@ -6238,7 +6210,7 @@
       </c>
     </row>
     <row r="59" spans="2:16">
-      <c r="B59" s="156" t="s">
+      <c r="B59" s="148" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="68">
@@ -6256,7 +6228,7 @@
       <c r="G59" s="68">
         <v>0.89204499999999998</v>
       </c>
-      <c r="H59" s="157">
+      <c r="H59" s="149">
         <v>0.92125000000000001</v>
       </c>
       <c r="J59" s="6" t="s">
@@ -6282,7 +6254,7 @@
       </c>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="156" t="s">
+      <c r="B60" s="148" t="s">
         <v>26</v>
       </c>
       <c r="C60" s="68">
@@ -6300,7 +6272,7 @@
       <c r="G60" s="68">
         <v>0.89204499999999998</v>
       </c>
-      <c r="H60" s="157">
+      <c r="H60" s="149">
         <v>0.92125000000000001</v>
       </c>
       <c r="J60" s="6" t="s">
@@ -6326,7 +6298,7 @@
       </c>
     </row>
     <row r="61" spans="2:16">
-      <c r="B61" s="156" t="s">
+      <c r="B61" s="148" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="68">
@@ -6344,7 +6316,7 @@
       <c r="G61" s="68">
         <v>0.49586799999999998</v>
       </c>
-      <c r="H61" s="157">
+      <c r="H61" s="149">
         <v>0.56105099999999997</v>
       </c>
       <c r="J61" s="6" t="s">
@@ -6370,29 +6342,29 @@
       </c>
     </row>
     <row r="62" spans="2:16">
-      <c r="B62" s="158" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="159">
+      <c r="B62" s="150" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="151">
         <v>0.18049999999999999</v>
       </c>
-      <c r="D62" s="159">
+      <c r="D62" s="151">
         <v>0.21581500000000001</v>
       </c>
-      <c r="E62" s="159">
+      <c r="E62" s="151">
         <v>0.224303</v>
       </c>
-      <c r="F62" s="159">
+      <c r="F62" s="151">
         <v>0.229352</v>
       </c>
-      <c r="G62" s="159">
+      <c r="G62" s="151">
         <v>0.26412000000000002</v>
       </c>
-      <c r="H62" s="160">
+      <c r="H62" s="152">
         <v>0.22281799999999999</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62" s="6">
         <v>0.18049999999999999</v>
@@ -6454,16 +6426,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="27" t="s">
@@ -6473,10 +6445,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>34</v>
@@ -6488,7 +6460,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -7142,7 +7114,7 @@
         <v>0.21808900000000001</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20" s="6">
         <v>0.22333900000000001</v>
@@ -7165,7 +7137,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6">
         <v>0.16605</v>
@@ -7686,7 +7658,7 @@
         <v>0.74738300000000002</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34" s="6">
         <v>1.0513380000000001</v>
@@ -8232,7 +8204,7 @@
         <v>5.9832000000000003E-2</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48" s="6">
         <v>6.1388999999999999E-2</v>
@@ -8776,7 +8748,7 @@
         <v>0.45757100000000001</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62" s="6">
         <v>0.31667499999999998</v>
@@ -8863,16 +8835,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="27" t="s">
@@ -8882,10 +8854,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>34</v>
@@ -8897,7 +8869,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -9537,7 +9509,7 @@
         <v>0.13331599999999999</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21" s="6">
         <v>4.1640000000000003E-2</v>
@@ -10094,7 +10066,7 @@
         <v>0.24534</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35" s="6">
         <v>0.162857</v>
@@ -10630,7 +10602,7 @@
         <v>2.0632999999999999E-2</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48" s="6">
         <v>1.3764999999999999E-2</v>
@@ -11174,7 +11146,7 @@
         <v>0.14630799999999999</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62" s="6">
         <v>8.6843000000000004E-2</v>
@@ -11258,16 +11230,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="27" t="s">
@@ -11277,10 +11249,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>34</v>
@@ -11292,7 +11264,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -11903,7 +11875,7 @@
         <v>8.1206E-2</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20" s="6">
         <v>7.1243000000000001E-2</v>
@@ -12449,7 +12421,7 @@
         <v>0.244338</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35" s="6">
         <v>0.163129</v>
@@ -12957,7 +12929,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K49" s="6">
         <v>3.3264000000000002E-2</v>
@@ -13477,7 +13449,7 @@
         <v>0.127438</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62" s="6">
         <v>0.115499</v>
@@ -13573,16 +13545,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="27" t="s">
@@ -13592,10 +13564,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>34</v>
@@ -13607,7 +13579,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:17">
@@ -14180,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="6">
         <v>0.111149</v>
@@ -14691,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33" s="6">
         <v>0.31590299999999999</v>
@@ -15212,7 +15184,7 @@
         <v>0.5</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K46" s="6">
         <v>7.7341999999999994E-2</v>
@@ -15818,7 +15790,7 @@
         <v>0.264629</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62" s="6">
         <v>0.28630699999999998</v>
